--- a/biology/Botanique/Arboretum_du_Petit-Bois/Arboretum_du_Petit-Bois.xlsx
+++ b/biology/Botanique/Arboretum_du_Petit-Bois/Arboretum_du_Petit-Bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arboretum du Petit-Bois est un arboretum de 0,5 hectare situé à proximité de la Forêt communale d'Argonne, au nord-est de la commune de Montfaucon-d'Argonne, dans le département de la Meuse en région Grand Est. 
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé dans la forêt d'Argonne, le long de la route de la Haute-Chevauchée, où l'on trouve de nombreux vestiges datant de la Première Guerre mondiale, tels que les abris du Kronprinz et le Kaiser-Tunnel.
 </t>
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arboretum a été créé en 1996 et est actuellement géré par la commune de Montfaucon-d'Argonne. Il abrite 50 types d'arbres.
 </t>
@@ -574,7 +590,9 @@
           <t>Collection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le type de forêt établi après la période glaciaire était la hêtraie-sapinière avec ses sous-bois floraux et arbustifs encore présents dans la région : sorbier, alisier, houx, nerprun, digitale pourpre, épilobe, airelle, fougère aigle, bruyère, etc.
 La plantation d'épicéas de Nordmann après la Première Guerre mondiale était initialement destinée à dissimuler les ravages du conflit.
